--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32183.61768194452</v>
+        <v>-34443.08475037734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6632862.567171204</v>
+        <v>6632862.5671712</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350.9491284734854</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>242.0561981984261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>200.9966871393563</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6053843988548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>272.1790311887228</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.7857003665473</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0955337074621</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6910260201687</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>107.0735902714619</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.5907626076383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.24181988115426</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>31.69431705604977</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
         <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>31.71288199027538</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.7321536188796</v>
       </c>
       <c r="I14" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T14" t="n">
         <v>203.9711388310543</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I15" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264397224</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>106.5732432730209</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S16" t="n">
         <v>189.8639731922165</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.1785777294841</v>
       </c>
       <c r="U16" t="n">
         <v>286.2121353820159</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9338715566936</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
         <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T17" t="n">
         <v>203.9711388310543</v>
@@ -1941,7 +1941,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H19" t="n">
-        <v>144.803454668018</v>
+        <v>54.60376616148605</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>135.5099668825061</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2121353820159</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.7321536188796</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T20" t="n">
         <v>203.9711388310543</v>
@@ -2178,7 +2178,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.2776226485115</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>89.09605950436821</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>89.1771250849618</v>
       </c>
       <c r="S22" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.7321536188796</v>
       </c>
       <c r="I23" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T23" t="n">
         <v>203.9711388310543</v>
@@ -2415,7 +2415,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I24" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>90.83879745374253</v>
       </c>
       <c r="H25" t="n">
-        <v>44.73492460235585</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S25" t="n">
         <v>189.8639731922165</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2121353820159</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>86.87333351823632</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>72.07192456522792</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>90.41948680756515</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.255881478402</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.41948680756526</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785989</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.5436091222469</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>54.51842438437712</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.1326769632413</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>86.64378161035697</v>
       </c>
       <c r="S37" t="n">
-        <v>187.4806542717519</v>
+        <v>187.4806542717515</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2605782164792</v>
+        <v>217.2605782164788</v>
       </c>
       <c r="U37" t="n">
-        <v>283.9234671459229</v>
+        <v>217.3871777609421</v>
       </c>
       <c r="V37" t="n">
-        <v>249.849272264138</v>
+        <v>249.8492722641376</v>
       </c>
       <c r="W37" t="n">
-        <v>284.234627276901</v>
+        <v>284.2346272769007</v>
       </c>
       <c r="X37" t="n">
-        <v>223.4212843293472</v>
+        <v>223.4212843293468</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.2962822924048</v>
+        <v>216.2962822924044</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996204</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124633</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572899</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124593</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933.544000781331</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1564.581483840919</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.5174848136515</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.5174848136515</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404538</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464126</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591311</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>756.4694329640045</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>338.5056248621913</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2588.993949329877</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2588.993949329877</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2588.993949329877</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2257.931061986306</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.483574129469</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.483574129469</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>180.6518495675273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1261.830076518533</v>
       </c>
       <c r="F11" t="n">
-        <v>850.8441717289252</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G11" t="n">
         <v>435.7594529847897</v>
@@ -5045,13 +5045,13 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L11" t="n">
-        <v>1248.737035753496</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M11" t="n">
-        <v>2225.175951394313</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N11" t="n">
-        <v>3202.782671979844</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O11" t="n">
         <v>4080.721338735274</v>
@@ -5066,7 +5066,7 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S11" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T11" t="n">
         <v>4462.414475791931</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268582</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457312</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844801</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790245</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059096</v>
       </c>
       <c r="G12" t="n">
         <v>195.1508857646348</v>
@@ -5121,22 +5121,22 @@
         <v>188.6497545038421</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8750609309152</v>
+        <v>425.8750609309157</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019983996</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108488</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755745</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q12" t="n">
         <v>2584.194155770509</v>
@@ -5154,7 +5154,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W12" t="n">
         <v>1544.507138117413</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>875.4975489185255</v>
+        <v>655.1637450351146</v>
       </c>
       <c r="C13" t="n">
-        <v>706.5613659906186</v>
+        <v>486.2275621072077</v>
       </c>
       <c r="D13" t="n">
-        <v>556.4447265782828</v>
+        <v>486.2275621072077</v>
       </c>
       <c r="E13" t="n">
-        <v>556.4447265782828</v>
+        <v>486.2275621072077</v>
       </c>
       <c r="F13" t="n">
-        <v>409.5547790803724</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="G13" t="n">
-        <v>241.8464391883683</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="H13" t="n">
-        <v>95.58032336208746</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I13" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K13" t="n">
         <v>343.6821446305111</v>
@@ -5212,37 +5212,37 @@
         <v>1343.33457539346</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.90179202596</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P13" t="n">
         <v>1873.856942706699</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R13" t="n">
-        <v>1860.937681577988</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S13" t="n">
-        <v>1860.937681577988</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="T13" t="n">
-        <v>1828.923219905211</v>
+        <v>1447.365761086447</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.82005285267</v>
+        <v>1158.262594033906</v>
       </c>
       <c r="V13" t="n">
-        <v>1285.135564646783</v>
+        <v>1158.262594033906</v>
       </c>
       <c r="W13" t="n">
-        <v>1285.135564646783</v>
+        <v>868.8454239969457</v>
       </c>
       <c r="X13" t="n">
-        <v>1057.146013748765</v>
+        <v>868.8454239969457</v>
       </c>
       <c r="Y13" t="n">
-        <v>1057.146013748765</v>
+        <v>836.8122098653544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C14" t="n">
         <v>2005.884027723527</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E14" t="n">
         <v>1261.830076518532</v>
       </c>
       <c r="F14" t="n">
-        <v>850.8441717289245</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G14" t="n">
         <v>435.7594529847897</v>
@@ -5279,13 +5279,13 @@
         <v>283.4388946495274</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6326723899233</v>
+        <v>615.7287139444702</v>
       </c>
       <c r="L14" t="n">
-        <v>1799.253940563949</v>
+        <v>1248.737035753496</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.674458046863</v>
+        <v>2225.175951394314</v>
       </c>
       <c r="N14" t="n">
         <v>3202.782671979844</v>
@@ -5321,7 +5321,7 @@
         <v>3151.585716703872</v>
       </c>
       <c r="Y14" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268584</v>
       </c>
       <c r="C15" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457314</v>
       </c>
       <c r="D15" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844802</v>
       </c>
       <c r="E15" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790247</v>
       </c>
       <c r="F15" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059097</v>
       </c>
       <c r="G15" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646353</v>
       </c>
       <c r="H15" t="n">
-        <v>104.5855943362255</v>
+        <v>104.5855943362261</v>
       </c>
       <c r="I15" t="n">
         <v>95.58032336208746</v>
@@ -5358,22 +5358,22 @@
         <v>188.6497545038421</v>
       </c>
       <c r="K15" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309151</v>
       </c>
       <c r="L15" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019983993</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N15" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q15" t="n">
         <v>2584.194155770509</v>
@@ -5391,7 +5391,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V15" t="n">
-        <v>1798.744494845614</v>
+        <v>1798.744494845615</v>
       </c>
       <c r="W15" t="n">
         <v>1544.507138117413</v>
@@ -5400,7 +5400,7 @@
         <v>1336.65563791188</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.895339146926</v>
+        <v>1128.895339146927</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.6640093009888</v>
+        <v>264.5165062899944</v>
       </c>
       <c r="C16" t="n">
-        <v>597.7278263730819</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="D16" t="n">
-        <v>447.6111869607462</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="E16" t="n">
-        <v>339.961446280927</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="F16" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="G16" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="H16" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="I16" t="n">
         <v>95.58032336208746</v>
       </c>
       <c r="J16" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6821446305111</v>
+        <v>343.682144630508</v>
       </c>
       <c r="L16" t="n">
-        <v>659.4400393012522</v>
+        <v>659.4400393012492</v>
       </c>
       <c r="M16" t="n">
-        <v>1002.751589802367</v>
+        <v>1002.751589802362</v>
       </c>
       <c r="N16" t="n">
-        <v>1343.334575393461</v>
+        <v>1343.334575393456</v>
       </c>
       <c r="O16" t="n">
-        <v>1641.901792025961</v>
+        <v>1641.901792025956</v>
       </c>
       <c r="P16" t="n">
-        <v>1873.856942706701</v>
+        <v>1873.856942706696</v>
       </c>
       <c r="Q16" t="n">
-        <v>1951.015585704213</v>
+        <v>1951.015585704208</v>
       </c>
       <c r="R16" t="n">
-        <v>1951.015585704213</v>
+        <v>1860.937681577984</v>
       </c>
       <c r="S16" t="n">
-        <v>1759.233794600965</v>
+        <v>1669.155890474735</v>
       </c>
       <c r="T16" t="n">
-        <v>1759.233794600965</v>
+        <v>1507.35934731364</v>
       </c>
       <c r="U16" t="n">
-        <v>1470.130627548423</v>
+        <v>1218.256180261099</v>
       </c>
       <c r="V16" t="n">
-        <v>1215.446139342536</v>
+        <v>963.5716920552121</v>
       </c>
       <c r="W16" t="n">
-        <v>1215.446139342536</v>
+        <v>674.1545220182516</v>
       </c>
       <c r="X16" t="n">
-        <v>987.456588444519</v>
+        <v>446.1649711202341</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.6640093009888</v>
+        <v>446.1649711202341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.846544663937</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.884027723526</v>
+        <v>2005.884027723527</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.618329116776</v>
+        <v>1647.618329116777</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F17" t="n">
-        <v>850.8441717289243</v>
+        <v>850.8441717289247</v>
       </c>
       <c r="G17" t="n">
         <v>435.7594529847897</v>
@@ -5540,25 +5540,25 @@
         <v>4779.016168104373</v>
       </c>
       <c r="S17" t="n">
-        <v>4668.445929156632</v>
+        <v>4668.445929156633</v>
       </c>
       <c r="T17" t="n">
-        <v>4462.41447579193</v>
+        <v>4462.414475791931</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.883017578636</v>
+        <v>4208.883017578637</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.820130235065</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W17" t="n">
-        <v>3525.051474964951</v>
+        <v>3525.051474964952</v>
       </c>
       <c r="X17" t="n">
-        <v>3151.585716703871</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y17" t="n">
-        <v>2761.446384728059</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>188.6497545038421</v>
       </c>
       <c r="K18" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309151</v>
       </c>
       <c r="L18" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019983993</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.822488350012</v>
+        <v>1236.822488350013</v>
       </c>
       <c r="N18" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O18" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P18" t="n">
-        <v>2427.373847244437</v>
+        <v>2427.373847244438</v>
       </c>
       <c r="Q18" t="n">
         <v>2584.194155770509</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.4909620082793</v>
+        <v>487.3801655370351</v>
       </c>
       <c r="C19" t="n">
-        <v>409.5547790803724</v>
+        <v>318.4439826091281</v>
       </c>
       <c r="D19" t="n">
-        <v>409.5547790803724</v>
+        <v>318.4439826091281</v>
       </c>
       <c r="E19" t="n">
-        <v>409.5547790803724</v>
+        <v>318.4439826091281</v>
       </c>
       <c r="F19" t="n">
-        <v>409.5547790803724</v>
+        <v>318.4439826091281</v>
       </c>
       <c r="G19" t="n">
-        <v>241.8464391883683</v>
+        <v>150.7356427171239</v>
       </c>
       <c r="H19" t="n">
         <v>95.58032336208746</v>
@@ -5671,52 +5671,52 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J19" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K19" t="n">
-        <v>343.6821446305111</v>
+        <v>343.6821446305109</v>
       </c>
       <c r="L19" t="n">
-        <v>659.4400393012522</v>
+        <v>659.440039301252</v>
       </c>
       <c r="M19" t="n">
         <v>1002.751589802365</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.33457539346</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O19" t="n">
-        <v>1641.90179202596</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P19" t="n">
-        <v>1873.856942706699</v>
+        <v>1873.856942706698</v>
       </c>
       <c r="Q19" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R19" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="T19" t="n">
-        <v>1814.136831277438</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="U19" t="n">
-        <v>1525.033664224897</v>
+        <v>1661.91241865167</v>
       </c>
       <c r="V19" t="n">
-        <v>1270.34917601901</v>
+        <v>1407.227930445783</v>
       </c>
       <c r="W19" t="n">
-        <v>980.9320059820492</v>
+        <v>1117.810760408822</v>
       </c>
       <c r="X19" t="n">
-        <v>980.9320059820492</v>
+        <v>889.8212095108049</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.1394268385191</v>
+        <v>669.0286303672748</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.846544663938</v>
+        <v>2374.846544663939</v>
       </c>
       <c r="C20" t="n">
         <v>2005.884027723527</v>
@@ -5735,10 +5735,10 @@
         <v>1647.618329116777</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.830076518533</v>
+        <v>1261.830076518532</v>
       </c>
       <c r="F20" t="n">
-        <v>850.8441717289247</v>
+        <v>850.8441717289248</v>
       </c>
       <c r="G20" t="n">
         <v>435.7594529847897</v>
@@ -5756,16 +5756,16 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L20" t="n">
-        <v>1248.737035753496</v>
+        <v>1375.174712821633</v>
       </c>
       <c r="M20" t="n">
-        <v>2225.175951394313</v>
+        <v>1906.595230304546</v>
       </c>
       <c r="N20" t="n">
-        <v>3202.782671979844</v>
+        <v>2884.201950890076</v>
       </c>
       <c r="O20" t="n">
-        <v>4080.721338735274</v>
+        <v>3762.140617645507</v>
       </c>
       <c r="P20" t="n">
         <v>4473.766574984809</v>
@@ -5786,16 +5786,16 @@
         <v>4208.883017578637</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.820130235066</v>
+        <v>3877.820130235067</v>
       </c>
       <c r="W20" t="n">
         <v>3525.051474964952</v>
       </c>
       <c r="X20" t="n">
-        <v>3151.585716703872</v>
+        <v>3151.585716703873</v>
       </c>
       <c r="Y20" t="n">
-        <v>2761.44638472806</v>
+        <v>2761.446384728061</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960.6800021268579</v>
+        <v>960.6800021268577</v>
       </c>
       <c r="C21" t="n">
-        <v>786.2269728457309</v>
+        <v>786.2269728457308</v>
       </c>
       <c r="D21" t="n">
-        <v>637.2925631844796</v>
+        <v>637.2925631844794</v>
       </c>
       <c r="E21" t="n">
-        <v>478.0551081790242</v>
+        <v>478.0551081790238</v>
       </c>
       <c r="F21" t="n">
-        <v>331.5205502059091</v>
+        <v>331.5205502059088</v>
       </c>
       <c r="G21" t="n">
-        <v>195.1508857646348</v>
+        <v>195.1508857646345</v>
       </c>
       <c r="H21" t="n">
         <v>104.5855943362255</v>
@@ -5829,22 +5829,22 @@
         <v>95.58032336208746</v>
       </c>
       <c r="J21" t="n">
-        <v>188.6497545038421</v>
+        <v>188.6497545038417</v>
       </c>
       <c r="K21" t="n">
-        <v>425.8750609309139</v>
+        <v>425.8750609309145</v>
       </c>
       <c r="L21" t="n">
-        <v>791.1763019983982</v>
+        <v>791.1763019983988</v>
       </c>
       <c r="M21" t="n">
         <v>1236.822488350012</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.672248108486</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O21" t="n">
-        <v>2118.102799755743</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P21" t="n">
         <v>2427.373847244437</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.58032336208747</v>
+        <v>874.2533148033185</v>
       </c>
       <c r="C22" t="n">
-        <v>95.58032336208747</v>
+        <v>784.2572951019366</v>
       </c>
       <c r="D22" t="n">
-        <v>95.58032336208747</v>
+        <v>634.1406556896009</v>
       </c>
       <c r="E22" t="n">
-        <v>95.58032336208747</v>
+        <v>486.2275621072077</v>
       </c>
       <c r="F22" t="n">
-        <v>95.58032336208747</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="G22" t="n">
-        <v>95.58032336208747</v>
+        <v>339.3376146092974</v>
       </c>
       <c r="H22" t="n">
-        <v>95.58032336208747</v>
+        <v>193.0714987830166</v>
       </c>
       <c r="I22" t="n">
-        <v>95.58032336208747</v>
+        <v>95.58032336208746</v>
       </c>
       <c r="J22" t="n">
-        <v>140.3216175627469</v>
+        <v>140.3216175627468</v>
       </c>
       <c r="K22" t="n">
-        <v>343.6821446305111</v>
+        <v>343.682144630511</v>
       </c>
       <c r="L22" t="n">
-        <v>659.4400393012522</v>
+        <v>659.440039301252</v>
       </c>
       <c r="M22" t="n">
         <v>1002.751589802365</v>
       </c>
       <c r="N22" t="n">
-        <v>1343.33457539346</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O22" t="n">
-        <v>1641.90179202596</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P22" t="n">
         <v>1873.856942706699</v>
       </c>
       <c r="Q22" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R22" t="n">
-        <v>1951.015585704212</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S22" t="n">
-        <v>1759.233794600963</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.443665212672</v>
+        <v>1639.147552189696</v>
       </c>
       <c r="U22" t="n">
-        <v>1248.34049816013</v>
+        <v>1639.147552189696</v>
       </c>
       <c r="V22" t="n">
-        <v>993.6560099542436</v>
+        <v>1384.463063983809</v>
       </c>
       <c r="W22" t="n">
-        <v>704.238839917283</v>
+        <v>1095.045893946849</v>
       </c>
       <c r="X22" t="n">
-        <v>476.2492890192657</v>
+        <v>1095.045893946849</v>
       </c>
       <c r="Y22" t="n">
-        <v>255.4567098757356</v>
+        <v>874.2533148033185</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.846544663939</v>
+        <v>2374.846544663938</v>
       </c>
       <c r="C23" t="n">
         <v>2005.884027723527</v>
@@ -5972,16 +5972,16 @@
         <v>1647.618329116777</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.830076518532</v>
+        <v>1261.830076518533</v>
       </c>
       <c r="F23" t="n">
-        <v>850.8441717289247</v>
+        <v>850.8441717289252</v>
       </c>
       <c r="G23" t="n">
-        <v>435.7594529847897</v>
+        <v>435.7594529847902</v>
       </c>
       <c r="H23" t="n">
-        <v>138.0502069051133</v>
+        <v>138.0502069051132</v>
       </c>
       <c r="I23" t="n">
         <v>95.58032336208746</v>
@@ -5993,13 +5993,13 @@
         <v>615.7287139444702</v>
       </c>
       <c r="L23" t="n">
-        <v>1248.737035753496</v>
+        <v>1478.349982118496</v>
       </c>
       <c r="M23" t="n">
-        <v>2225.175951394313</v>
+        <v>2454.788897759313</v>
       </c>
       <c r="N23" t="n">
-        <v>3202.782671979844</v>
+        <v>3432.395618344844</v>
       </c>
       <c r="O23" t="n">
         <v>4080.721338735274</v>
@@ -6023,16 +6023,16 @@
         <v>4208.883017578637</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.820130235067</v>
+        <v>3877.820130235066</v>
       </c>
       <c r="W23" t="n">
         <v>3525.051474964952</v>
       </c>
       <c r="X23" t="n">
-        <v>3151.585716703873</v>
+        <v>3151.585716703872</v>
       </c>
       <c r="Y23" t="n">
-        <v>2761.446384728061</v>
+        <v>2761.44638472806</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>960.6800021268582</v>
+        <v>960.6800021268579</v>
       </c>
       <c r="C24" t="n">
-        <v>786.2269728457312</v>
+        <v>786.2269728457309</v>
       </c>
       <c r="D24" t="n">
-        <v>637.2925631844801</v>
+        <v>637.2925631844796</v>
       </c>
       <c r="E24" t="n">
-        <v>478.0551081790245</v>
+        <v>478.0551081790242</v>
       </c>
       <c r="F24" t="n">
-        <v>331.5205502059096</v>
+        <v>331.5205502059091</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1508857646352</v>
+        <v>195.1508857646348</v>
       </c>
       <c r="H24" t="n">
-        <v>104.585594336226</v>
+        <v>104.5855943362255</v>
       </c>
       <c r="I24" t="n">
         <v>95.58032336208746</v>
@@ -6069,19 +6069,19 @@
         <v>188.6497545038421</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8750609309152</v>
+        <v>425.8750609309151</v>
       </c>
       <c r="L24" t="n">
-        <v>791.1763019983996</v>
+        <v>791.1763019983993</v>
       </c>
       <c r="M24" t="n">
         <v>1236.822488350013</v>
       </c>
       <c r="N24" t="n">
-        <v>1708.672248108488</v>
+        <v>1708.672248108487</v>
       </c>
       <c r="O24" t="n">
-        <v>2118.102799755745</v>
+        <v>2118.102799755744</v>
       </c>
       <c r="P24" t="n">
         <v>2427.373847244438</v>
@@ -6102,7 +6102,7 @@
         <v>2033.896603077357</v>
       </c>
       <c r="V24" t="n">
-        <v>1798.744494845615</v>
+        <v>1798.744494845614</v>
       </c>
       <c r="W24" t="n">
         <v>1544.507138117413</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>386.1713848930419</v>
+        <v>654.3026003491096</v>
       </c>
       <c r="C25" t="n">
-        <v>386.1713848930419</v>
+        <v>485.3664174212028</v>
       </c>
       <c r="D25" t="n">
-        <v>386.1713848930419</v>
+        <v>335.249778008867</v>
       </c>
       <c r="E25" t="n">
-        <v>238.2582913106488</v>
+        <v>187.3366844264739</v>
       </c>
       <c r="F25" t="n">
-        <v>238.2582913106488</v>
+        <v>187.3366844264739</v>
       </c>
       <c r="G25" t="n">
-        <v>238.2582913106488</v>
+        <v>95.58032336208747</v>
       </c>
       <c r="H25" t="n">
-        <v>193.0714987830166</v>
+        <v>95.58032336208747</v>
       </c>
       <c r="I25" t="n">
         <v>95.58032336208747</v>
       </c>
       <c r="J25" t="n">
-        <v>140.3216175627468</v>
+        <v>140.321617562747</v>
       </c>
       <c r="K25" t="n">
         <v>343.6821446305111</v>
@@ -6157,40 +6157,40 @@
         <v>1002.751589802365</v>
       </c>
       <c r="N25" t="n">
-        <v>1343.33457539346</v>
+        <v>1343.334575393459</v>
       </c>
       <c r="O25" t="n">
-        <v>1641.90179202596</v>
+        <v>1641.901792025959</v>
       </c>
       <c r="P25" t="n">
         <v>1873.856942706699</v>
       </c>
       <c r="Q25" t="n">
-        <v>1951.015585704212</v>
+        <v>1951.015585704211</v>
       </c>
       <c r="R25" t="n">
-        <v>1860.937681577988</v>
+        <v>1860.937681577987</v>
       </c>
       <c r="S25" t="n">
-        <v>1669.155890474739</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="T25" t="n">
-        <v>1447.365761086448</v>
+        <v>1669.155890474738</v>
       </c>
       <c r="U25" t="n">
-        <v>1158.262594033907</v>
+        <v>1380.052723422197</v>
       </c>
       <c r="V25" t="n">
-        <v>903.5781058280198</v>
+        <v>1125.36823521631</v>
       </c>
       <c r="W25" t="n">
-        <v>614.1609357910593</v>
+        <v>835.9510651793494</v>
       </c>
       <c r="X25" t="n">
-        <v>386.1713848930419</v>
+        <v>835.9510651793494</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.1713848930419</v>
+        <v>835.9510651793494</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.7425750505952</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1778.762166924619</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1556.995551494145</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1556.995551494145</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725643</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.173169922382</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.183619024365</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.3910398808349</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>243.4741280307873</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858347</v>
+        <v>243.4741280307873</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307873</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1938.913282793186</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1747.227398620013</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1236.357916315182</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>981.6734281092953</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>692.2562580723347</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>464.2667071743174</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>243.4741280307873</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7029,25 +7029,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>295.208611567201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>295.208611567201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>295.208611567201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>240.139496027426</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>142.9491542444231</v>
+        <v>142.9491542444234</v>
       </c>
       <c r="K37" t="n">
-        <v>349.2018245423925</v>
+        <v>349.2018245423932</v>
       </c>
       <c r="L37" t="n">
-        <v>668.0271103399817</v>
+        <v>668.0271103399829</v>
       </c>
       <c r="M37" t="n">
-        <v>1014.449643288624</v>
+        <v>1014.449643288625</v>
       </c>
       <c r="N37" t="n">
-        <v>1358.123507343582</v>
+        <v>1358.123507343583</v>
       </c>
       <c r="O37" t="n">
-        <v>1659.718593613088</v>
+        <v>1659.71859361309</v>
       </c>
       <c r="P37" t="n">
-        <v>1894.591581395841</v>
+        <v>1894.591581395843</v>
       </c>
       <c r="Q37" t="n">
-        <v>1974.467364897449</v>
+        <v>1974.467364897451</v>
       </c>
       <c r="R37" t="n">
-        <v>1974.467364897449</v>
+        <v>1886.948393573858</v>
       </c>
       <c r="S37" t="n">
-        <v>1785.092966643154</v>
+        <v>1697.573995319564</v>
       </c>
       <c r="T37" t="n">
-        <v>1565.637837131559</v>
+        <v>1478.118865807969</v>
       </c>
       <c r="U37" t="n">
-        <v>1278.846456176081</v>
+        <v>1258.535857968633</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.473453889073</v>
+        <v>1006.162855681626</v>
       </c>
       <c r="W37" t="n">
-        <v>739.3677697709909</v>
+        <v>719.0571715635441</v>
       </c>
       <c r="X37" t="n">
-        <v>513.6897047918524</v>
+        <v>493.3791065844059</v>
       </c>
       <c r="Y37" t="n">
-        <v>295.208611567201</v>
+        <v>274.8980133597549</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430902</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,19 +7354,19 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122058</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849073</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416723</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932531</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160454</v>
+        <v>244.2046325160452</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819762</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,52 +7646,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,7 +7807,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>185.728945494895</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>148.8679122071902</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>185.7289454948955</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>330.7827762780963</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>10.12574714858435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>148.8679122071902</v>
+        <v>148.8679122071903</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602900433</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>185.728945494895</v>
+        <v>313.4437708162455</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>185.728945494895</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>148.8679122071903</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>295.4822118493981</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1679217109319</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>187.8779110383584</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>186.8717713618194</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>39.86071937354821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0312564930842</v>
@@ -23671,7 +23671,7 @@
         <v>144.803454668018</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5722280944081</v>
+        <v>59.39365036492401</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.19968850653194</v>
       </c>
       <c r="I19" t="n">
-        <v>96.51626366671982</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S19" t="n">
         <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>84.06226121190201</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.55435753342582</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>78.15076159425962</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.51626366671982</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0312564930842</v>
+        <v>75.19245903934163</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0685300656621</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>102.8956918132056</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4510737713631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>58.19598621064721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67627119164533</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>58.19598621064709</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5436091222473</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.9584500389379</v>
+        <v>164.9584500389375</v>
       </c>
       <c r="D37" t="n">
-        <v>146.3271019585224</v>
+        <v>146.327101958522</v>
       </c>
       <c r="E37" t="n">
-        <v>89.62716720250208</v>
+        <v>144.1455915868788</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.1326769632409</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7374371993382</v>
+        <v>163.7374371993378</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4666438546308</v>
+        <v>142.4666438546304</v>
       </c>
       <c r="I37" t="n">
-        <v>94.06404935014811</v>
+        <v>94.06404935014774</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.64378161035735</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>66.53628938498045</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.064837566025722e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-6.414868763969913e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.907985046680551e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1111130.860021789</v>
+        <v>1111130.86002179</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991064</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991065</v>
-      </c>
       <c r="E2" t="n">
-        <v>297758.4658390133</v>
+        <v>297758.4658390134</v>
       </c>
       <c r="F2" t="n">
         <v>297758.4658390133</v>
@@ -26332,28 +26332,28 @@
         <v>297758.4658390133</v>
       </c>
       <c r="I2" t="n">
-        <v>297758.4658390132</v>
+        <v>297758.4658390133</v>
       </c>
       <c r="J2" t="n">
+        <v>297811.3401652375</v>
+      </c>
+      <c r="K2" t="n">
         <v>297811.3401652376</v>
       </c>
-      <c r="K2" t="n">
-        <v>297811.3401652377</v>
-      </c>
       <c r="L2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="M2" t="n">
-        <v>298302.3495360765</v>
+        <v>298302.3495360764</v>
       </c>
       <c r="N2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="O2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="P2" t="n">
         <v>307890.6636991064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307890.6636991064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>725022.0883529601</v>
+        <v>725022.0883529598</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178595.2595245355</v>
+        <v>178595.2595245357</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131533.0976172963</v>
+        <v>131533.0976172964</v>
       </c>
       <c r="N3" t="n">
-        <v>35749.41244712209</v>
+        <v>35749.41244712192</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,16 +26424,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18359.70425226883</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="F4" t="n">
-        <v>18359.70425226881</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="G4" t="n">
         <v>18359.70425226884</v>
       </c>
       <c r="H4" t="n">
-        <v>18359.70425226883</v>
+        <v>18359.70425226884</v>
       </c>
       <c r="I4" t="n">
         <v>18359.70425226884</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18901.48044000627</v>
+        <v>18901.4804400064</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>96332.31363132433</v>
       </c>
       <c r="F5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="G5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="H5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="I5" t="n">
-        <v>96332.31363132433</v>
+        <v>96332.31363132432</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96575.89932033073</v>
+        <v>96575.89932033076</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548284.9804359755</v>
+        <v>-548284.9804359757</v>
       </c>
       <c r="C6" t="n">
+        <v>41682.89877856898</v>
+      </c>
+      <c r="D6" t="n">
         <v>41682.89877856884</v>
       </c>
-      <c r="D6" t="n">
-        <v>41682.8987785691</v>
-      </c>
       <c r="E6" t="n">
-        <v>-541955.6403975398</v>
+        <v>-542023.1883832735</v>
       </c>
       <c r="F6" t="n">
-        <v>183066.4479554202</v>
+        <v>182998.8999696863</v>
       </c>
       <c r="G6" t="n">
-        <v>183066.4479554202</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="H6" t="n">
-        <v>183066.4479554202</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="I6" t="n">
-        <v>183066.4479554201</v>
+        <v>182998.8999696862</v>
       </c>
       <c r="J6" t="n">
-        <v>4684.070067798471</v>
+        <v>4616.874577572446</v>
       </c>
       <c r="K6" t="n">
-        <v>183279.3295923341</v>
+        <v>183212.1341021082</v>
       </c>
       <c r="L6" t="n">
-        <v>183279.329592334</v>
+        <v>183212.1341021082</v>
       </c>
       <c r="M6" t="n">
-        <v>51291.87215844326</v>
+        <v>51227.9500640226</v>
       </c>
       <c r="N6" t="n">
-        <v>138202.9269404732</v>
+        <v>138202.9269404733</v>
       </c>
       <c r="O6" t="n">
-        <v>173952.3393875952</v>
+        <v>173952.3393875951</v>
       </c>
       <c r="P6" t="n">
         <v>173952.3393875952</v>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.068502520023717e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.754042026093</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="N2" t="n">
-        <v>44.68676555890261</v>
+        <v>44.6867655589022</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452004</v>
+        <v>709.0117429452002</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.021293431011372</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.4667692715377</v>
+        <v>520.4667692715376</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715377</v>
+        <v>520.4667692715376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.4667692715377</v>
+        <v>520.4667692715376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>3.733913147197541</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>127.6749024800429</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>24.03841831872799</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.97926895323997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>134.6970145529887</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>194.1370723978098</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.519939310750232</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.83197231642231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>67.34212253750965</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.6471760484153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>54.723801911184</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28509,13 +28509,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.101341240428155e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="C37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="D37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="E37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="F37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="G37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="H37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="I37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="J37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="K37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="L37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="M37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="N37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="O37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="P37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="R37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="S37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="T37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="U37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="V37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="W37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="X37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.288371059689981</v>
+        <v>2.288371059690371</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-2.921227059279557e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H14" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I14" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J14" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K14" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L14" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M14" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N14" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O14" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P14" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R14" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S14" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T14" t="n">
         <v>19.12471073307702</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H15" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I15" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J15" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K15" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L15" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M15" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N15" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O15" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R15" t="n">
         <v>145.133108903673</v>
@@ -32105,7 +32105,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T15" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U15" t="n">
         <v>0.1537861425229652</v>
@@ -32148,7 +32148,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I16" t="n">
         <v>58.93421126053845</v>
@@ -32157,16 +32157,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K16" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M16" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O16" t="n">
         <v>276.9979191894957</v>
@@ -32178,16 +32178,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R16" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S16" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T16" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H17" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J17" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K17" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L17" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M17" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N17" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O17" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P17" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R17" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S17" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T17" t="n">
         <v>19.12471073307702</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H18" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I18" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J18" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K18" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L18" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M18" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N18" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O18" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P18" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R18" t="n">
         <v>145.133108903673</v>
@@ -32342,7 +32342,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T18" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U18" t="n">
         <v>0.1537861425229652</v>
@@ -32385,7 +32385,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I19" t="n">
         <v>58.93421126053845</v>
@@ -32394,16 +32394,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L19" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M19" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N19" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O19" t="n">
         <v>276.9979191894957</v>
@@ -32415,16 +32415,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S19" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T19" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K20" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L20" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M20" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N20" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O20" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P20" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R20" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T20" t="n">
         <v>19.12471073307702</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I21" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J21" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L21" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M21" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N21" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O21" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R21" t="n">
         <v>145.133108903673</v>
@@ -32579,7 +32579,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T21" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U21" t="n">
         <v>0.1537861425229652</v>
@@ -32622,7 +32622,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
         <v>58.93421126053845</v>
@@ -32631,16 +32631,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K22" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L22" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M22" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N22" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
         <v>276.9979191894957</v>
@@ -32652,16 +32652,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S22" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T22" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H23" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I23" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J23" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K23" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L23" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M23" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N23" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O23" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P23" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R23" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S23" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T23" t="n">
         <v>19.12471073307702</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H24" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I24" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K24" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L24" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M24" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N24" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O24" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P24" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R24" t="n">
         <v>145.133108903673</v>
@@ -32816,7 +32816,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T24" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U24" t="n">
         <v>0.1537861425229652</v>
@@ -32859,7 +32859,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I25" t="n">
         <v>58.93421126053845</v>
@@ -32868,16 +32868,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K25" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L25" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M25" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N25" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O25" t="n">
         <v>276.9979191894957</v>
@@ -32889,16 +32889,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R25" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S25" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T25" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>639.4023452616418</v>
+        <v>871.3346143171973</v>
       </c>
       <c r="M11" t="n">
         <v>986.3019349907253</v>
@@ -35422,7 +35422,7 @@
         <v>987.4815359449802</v>
       </c>
       <c r="O11" t="n">
-        <v>886.8067340963944</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P11" t="n">
         <v>397.0153901510453</v>
@@ -35492,7 +35492,7 @@
         <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934172</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
         <v>450.147662981428</v>
@@ -35574,7 +35574,7 @@
         <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
         <v>344.0232177687825</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K14" t="n">
-        <v>659.7916946872687</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3346143171973</v>
+        <v>639.4023452616423</v>
       </c>
       <c r="M14" t="n">
-        <v>536.7884014978928</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N14" t="n">
-        <v>880.9173878110925</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O14" t="n">
-        <v>886.8067340963944</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0153901510453</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R14" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K15" t="n">
-        <v>239.6215216435069</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L15" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M15" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N15" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P15" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4146738058224</v>
+        <v>205.4146738058194</v>
       </c>
       <c r="L16" t="n">
         <v>318.947368354284</v>
       </c>
       <c r="M16" t="n">
-        <v>346.7793439405197</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N16" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O16" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P16" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.93802322981092</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L17" t="n">
-        <v>871.3346143171973</v>
+        <v>871.3346143171972</v>
       </c>
       <c r="M17" t="n">
-        <v>986.3019349907253</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N17" t="n">
-        <v>987.4815359449802</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O17" t="n">
         <v>654.8744650408393</v>
       </c>
       <c r="P17" t="n">
-        <v>397.0153901510453</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R17" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K18" t="n">
-        <v>239.6215216435069</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L18" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M18" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N18" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P18" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-9.186815169423518e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K19" t="n">
         <v>205.4146738058224</v>
@@ -36048,19 +36048,19 @@
         <v>318.947368354284</v>
       </c>
       <c r="M19" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N19" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O19" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P19" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.93802322981092</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K20" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L20" t="n">
-        <v>639.4023452616418</v>
+        <v>767.1171705829922</v>
       </c>
       <c r="M20" t="n">
-        <v>986.3019349907253</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N20" t="n">
-        <v>987.4815359449802</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O20" t="n">
-        <v>886.8067340963944</v>
+        <v>886.8067340963943</v>
       </c>
       <c r="P20" t="n">
-        <v>397.0153901510453</v>
+        <v>718.8140983225278</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R20" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K21" t="n">
-        <v>239.6215216435069</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L21" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M21" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N21" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P21" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K22" t="n">
         <v>205.4146738058224</v>
@@ -36285,19 +36285,19 @@
         <v>318.947368354284</v>
       </c>
       <c r="M22" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N22" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O22" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P22" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.93802322981092</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L23" t="n">
-        <v>639.4023452616418</v>
+        <v>871.3346143171972</v>
       </c>
       <c r="M23" t="n">
-        <v>986.3019349907253</v>
+        <v>986.301934990725</v>
       </c>
       <c r="N23" t="n">
-        <v>987.4815359449802</v>
+        <v>987.4815359449801</v>
       </c>
       <c r="O23" t="n">
-        <v>886.8067340963944</v>
+        <v>654.8744650408393</v>
       </c>
       <c r="P23" t="n">
-        <v>397.0153901510453</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R23" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K24" t="n">
-        <v>239.6215216435082</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L24" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M24" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N24" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O24" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P24" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.404352046537</v>
+        <v>158.404352046536</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K25" t="n">
         <v>205.4146738058224</v>
@@ -36522,19 +36522,19 @@
         <v>318.947368354284</v>
       </c>
       <c r="M25" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N25" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O25" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P25" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.93802322981092</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>751.0723262417303</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.8667876727562</v>
+        <v>47.86678767275657</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3360306040096</v>
+        <v>208.3360306040099</v>
       </c>
       <c r="L37" t="n">
-        <v>322.0457432298881</v>
+        <v>322.0457432298884</v>
       </c>
       <c r="M37" t="n">
-        <v>349.9217504531738</v>
+        <v>349.9217504531741</v>
       </c>
       <c r="N37" t="n">
-        <v>347.1453172272301</v>
+        <v>347.1453172272304</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6415012823297</v>
+        <v>304.6415012823301</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2454422048004</v>
+        <v>237.2454422048008</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.68260959758364</v>
+        <v>80.682609597584</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>867.4697571238434</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
